--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW26.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW26.xlsx
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.34108562337226933</v>
+        <v>0.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3857999483420916</v>
+        <v>0.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.37227873184940913</v>
+        <v>0.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.40093333333333336</v>
+        <v>0.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3269464249737737</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.40364898961824774</v>
+        <v>0.0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.37275244401922036</v>
+        <v>0.0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.39919271675584594</v>
+        <v>0.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.43020669991517174</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.409810382815569</v>
+        <v>0.0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4025610939714447</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.5029721409564079</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.8324903254084715</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5372819752207667</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.7500947469635932</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.5268292587532406</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.8500004656054283</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.536647667199057</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.5199094765904222</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7801608175834864</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.7790488918868943</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.7427738989988941</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -6221,37 +6221,37 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="n">
-        <v>0.4132414958721203</v>
+        <v>0.0</v>
       </c>
       <c r="C162" t="n">
-        <v>0.518728228214754</v>
+        <v>0.0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4911048860677062</v>
+        <v>0.0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.40093333333333325</v>
+        <v>0.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4811006332229021</v>
+        <v>0.0</v>
       </c>
       <c r="G162" t="n">
-        <v>0.4596687900850923</v>
+        <v>0.0</v>
       </c>
       <c r="H162" t="n">
-        <v>0.4936595775461294</v>
+        <v>0.0</v>
       </c>
       <c r="I162" t="n">
-        <v>0.4339409295778052</v>
+        <v>0.0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.4692382556441437</v>
+        <v>0.0</v>
       </c>
       <c r="K162" t="n">
-        <v>0.48063567928269874</v>
+        <v>0.0</v>
       </c>
       <c r="L162" t="n">
-        <v>0.474872397337096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -9603,37 +9603,37 @@
         <v>250.0</v>
       </c>
       <c r="B251" t="n">
-        <v>1.097944858651316</v>
+        <v>0.0</v>
       </c>
       <c r="C251" t="n">
-        <v>1.2418789908592227</v>
+        <v>0.0</v>
       </c>
       <c r="D251" t="n">
-        <v>1.198354581990634</v>
+        <v>0.0</v>
       </c>
       <c r="E251" t="n">
-        <v>1.2905929239791483</v>
+        <v>0.0</v>
       </c>
       <c r="F251" t="n">
-        <v>1.052431183716574</v>
+        <v>0.0</v>
       </c>
       <c r="G251" t="n">
-        <v>1.2993345438293395</v>
+        <v>0.0</v>
       </c>
       <c r="H251" t="n">
-        <v>1.1998794479060677</v>
+        <v>0.0</v>
       </c>
       <c r="I251" t="n">
-        <v>1.2849899290383453</v>
+        <v>0.0</v>
       </c>
       <c r="J251" t="n">
-        <v>1.3848230531067713</v>
+        <v>0.0</v>
       </c>
       <c r="K251" t="n">
-        <v>1.3191678921723293</v>
+        <v>0.0</v>
       </c>
       <c r="L251" t="n">
-        <v>1.2958326388814054</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>6.891237486831405</v>
+        <v>0.0</v>
       </c>
       <c r="C254" t="n">
-        <v>5.7520767156237325</v>
+        <v>0.0</v>
       </c>
       <c r="D254" t="n">
-        <v>6.691020321145865</v>
+        <v>0.0</v>
       </c>
       <c r="E254" t="n">
-        <v>6.993382933902976</v>
+        <v>0.0</v>
       </c>
       <c r="F254" t="n">
-        <v>6.841825626243765</v>
+        <v>0.0</v>
       </c>
       <c r="G254" t="n">
-        <v>6.189045304169559</v>
+        <v>0.0</v>
       </c>
       <c r="H254" t="n">
-        <v>6.685919191740771</v>
+        <v>0.0</v>
       </c>
       <c r="I254" t="n">
-        <v>6.866382187842471</v>
+        <v>0.0</v>
       </c>
       <c r="J254" t="n">
-        <v>6.132728849920502</v>
+        <v>0.0</v>
       </c>
       <c r="K254" t="n">
-        <v>6.02928523154344</v>
+        <v>0.0</v>
       </c>
       <c r="L254" t="n">
-        <v>7.126440532899501</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -9831,37 +9831,37 @@
         <v>256.0</v>
       </c>
       <c r="B257" t="n">
-        <v>3.2622285141540353</v>
+        <v>0.0</v>
       </c>
       <c r="C257" t="n">
-        <v>2.722963577030517</v>
+        <v>0.0</v>
       </c>
       <c r="D257" t="n">
-        <v>3.1674481284583464</v>
+        <v>0.0</v>
       </c>
       <c r="E257" t="n">
-        <v>3.3105829339029773</v>
+        <v>0.0</v>
       </c>
       <c r="F257" t="n">
-        <v>3.2388375367200943</v>
+        <v>0.0</v>
       </c>
       <c r="G257" t="n">
-        <v>2.9298192240848864</v>
+        <v>0.0</v>
       </c>
       <c r="H257" t="n">
-        <v>3.165033315468446</v>
+        <v>0.0</v>
       </c>
       <c r="I257" t="n">
-        <v>3.250462316102601</v>
+        <v>0.0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.903159695485213</v>
+        <v>0.0</v>
       </c>
       <c r="K257" t="n">
-        <v>2.854190737134587</v>
+        <v>0.0</v>
       </c>
       <c r="L257" t="n">
-        <v>3.373570792658506</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>0.7317876988461731</v>
+        <v>0.0</v>
       </c>
       <c r="C269" t="n">
-        <v>0.7198475967528885</v>
+        <v>0.0</v>
       </c>
       <c r="D269" t="n">
-        <v>0.707859853290942</v>
+        <v>0.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.764754619338456</v>
+        <v>0.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.7303926961769335</v>
+        <v>0.0</v>
       </c>
       <c r="G269" t="n">
-        <v>0.7255483401819288</v>
+        <v>0.0</v>
       </c>
       <c r="H269" t="n">
-        <v>0.7070611574562721</v>
+        <v>0.0</v>
       </c>
       <c r="I269" t="n">
-        <v>0.7463230781256641</v>
+        <v>0.0</v>
       </c>
       <c r="J269" t="n">
-        <v>0.7317095101170409</v>
+        <v>0.0</v>
       </c>
       <c r="K269" t="n">
-        <v>0.6568847812283768</v>
+        <v>0.0</v>
       </c>
       <c r="L269" t="n">
-        <v>0.6277524392445042</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7363045337008665</v>
+        <v>0.0</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8977351594172814</v>
+        <v>0.0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.7531128868505775</v>
+        <v>0.0</v>
       </c>
       <c r="E315" t="n">
-        <v>0.8573696487649927</v>
+        <v>0.0</v>
       </c>
       <c r="F315" t="n">
-        <v>0.747992111611436</v>
+        <v>0.0</v>
       </c>
       <c r="G315" t="n">
-        <v>0.9063133594127603</v>
+        <v>0.0</v>
       </c>
       <c r="H315" t="n">
-        <v>0.7528021399914572</v>
+        <v>0.0</v>
       </c>
       <c r="I315" t="n">
-        <v>0.7446021173195503</v>
+        <v>0.0</v>
       </c>
       <c r="J315" t="n">
-        <v>0.8720989863919101</v>
+        <v>0.0</v>
       </c>
       <c r="K315" t="n">
-        <v>0.8715542551163068</v>
+        <v>0.0</v>
       </c>
       <c r="L315" t="n">
-        <v>0.8537831727418825</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>0.24605583474781154</v>
+        <v>0.0</v>
       </c>
       <c r="C327" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.2472854719964548</v>
+        <v>0.0</v>
       </c>
       <c r="E327" t="n">
-        <v>0.23342857143592466</v>
+        <v>0.0</v>
       </c>
       <c r="F327" t="n">
-        <v>0.18996003957993154</v>
+        <v>0.0</v>
       </c>
       <c r="G327" t="n">
-        <v>0.21224733477636257</v>
+        <v>0.0</v>
       </c>
       <c r="H327" t="n">
-        <v>0.21909402297343536</v>
+        <v>0.0</v>
       </c>
       <c r="I327" t="n">
-        <v>0.18763242191950202</v>
+        <v>0.0</v>
       </c>
       <c r="J327" t="n">
-        <v>0.22296817357125776</v>
+        <v>0.0</v>
       </c>
       <c r="K327" t="n">
-        <v>0.22191767573983315</v>
+        <v>0.0</v>
       </c>
       <c r="L327" t="n">
-        <v>0.18504344778817083</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -13365,37 +13365,37 @@
         <v>349.0</v>
       </c>
       <c r="B350" t="n">
-        <v>5.157140174022951</v>
+        <v>0.0</v>
       </c>
       <c r="C350" t="n">
-        <v>4.961645704946079</v>
+        <v>0.0</v>
       </c>
       <c r="D350" t="n">
-        <v>4.519239618417886</v>
+        <v>0.0</v>
       </c>
       <c r="E350" t="n">
-        <v>5.000849004514243</v>
+        <v>0.0</v>
       </c>
       <c r="F350" t="n">
-        <v>5.062984710535369</v>
+        <v>0.0</v>
       </c>
       <c r="G350" t="n">
-        <v>4.101736467350234</v>
+        <v>0.0</v>
       </c>
       <c r="H350" t="n">
-        <v>4.4408836542884735</v>
+        <v>0.0</v>
       </c>
       <c r="I350" t="n">
-        <v>5.091589150901132</v>
+        <v>0.0</v>
       </c>
       <c r="J350" t="n">
-        <v>4.590951844365293</v>
+        <v>0.0</v>
       </c>
       <c r="K350" t="n">
-        <v>4.827065692199336</v>
+        <v>0.0</v>
       </c>
       <c r="L350" t="n">
-        <v>4.755489988100636</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -13783,37 +13783,37 @@
         <v>360.0</v>
       </c>
       <c r="B361" t="n">
-        <v>0.9769228370422227</v>
+        <v>0.0</v>
       </c>
       <c r="C361" t="n">
-        <v>1.014750714093211</v>
+        <v>0.0</v>
       </c>
       <c r="D361" t="n">
-        <v>1.0891239502374674</v>
+        <v>0.0</v>
       </c>
       <c r="E361" t="n">
-        <v>0.9298422187185843</v>
+        <v>0.0</v>
       </c>
       <c r="F361" t="n">
-        <v>0.9450183804838477</v>
+        <v>0.0</v>
       </c>
       <c r="G361" t="n">
-        <v>1.0558938238585278</v>
+        <v>0.0</v>
       </c>
       <c r="H361" t="n">
-        <v>1.0899549148436822</v>
+        <v>0.0</v>
       </c>
       <c r="I361" t="n">
-        <v>0.9334388847293253</v>
+        <v>0.0</v>
       </c>
       <c r="J361" t="n">
-        <v>1.109228144791416</v>
+        <v>0.0</v>
       </c>
       <c r="K361" t="n">
-        <v>1.104002099558166</v>
+        <v>0.0</v>
       </c>
       <c r="L361" t="n">
-        <v>0.9205591856825388</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7506079019331268</v>
+        <v>0.0</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9422129939589962</v>
+        <v>0.0</v>
       </c>
       <c r="D398" t="n">
-        <v>0.8920382194010394</v>
+        <v>0.0</v>
       </c>
       <c r="E398" t="n">
-        <v>0.7282514731809915</v>
+        <v>0.0</v>
       </c>
       <c r="F398" t="n">
-        <v>0.8738665901884429</v>
+        <v>0.0</v>
       </c>
       <c r="G398" t="n">
-        <v>0.8349379952314412</v>
+        <v>0.0</v>
       </c>
       <c r="H398" t="n">
-        <v>0.8966785365760095</v>
+        <v>0.0</v>
       </c>
       <c r="I398" t="n">
-        <v>0.7882061554004796</v>
+        <v>0.0</v>
       </c>
       <c r="J398" t="n">
-        <v>0.8523198809753735</v>
+        <v>0.0</v>
       </c>
       <c r="K398" t="n">
-        <v>0.8730220522970702</v>
+        <v>0.0</v>
       </c>
       <c r="L398" t="n">
-        <v>0.8625536820761458</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4776032753470349</v>
+        <v>0.0</v>
       </c>
       <c r="C406" t="n">
-        <v>0.49232171509383854</v>
+        <v>0.0</v>
       </c>
       <c r="D406" t="n">
-        <v>0.5016</v>
+        <v>0.0</v>
       </c>
       <c r="E406" t="n">
-        <v>0.42370196844500163</v>
+        <v>0.0</v>
       </c>
       <c r="F406" t="n">
-        <v>0.49625226025566455</v>
+        <v>0.0</v>
       </c>
       <c r="G406" t="n">
-        <v>0.49345072689410957</v>
+        <v>0.0</v>
       </c>
       <c r="H406" t="n">
-        <v>0.50152133089006</v>
+        <v>0.0</v>
       </c>
       <c r="I406" t="n">
-        <v>0.47562521314849376</v>
+        <v>0.0</v>
       </c>
       <c r="J406" t="n">
-        <v>0.42088477670429286</v>
+        <v>0.0</v>
       </c>
       <c r="K406" t="n">
-        <v>0.4974189104731577</v>
+        <v>0.0</v>
       </c>
       <c r="L406" t="n">
-        <v>0.4238833437850246</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -15569,37 +15569,37 @@
         <v>407.0</v>
       </c>
       <c r="B408" t="n">
-        <v>0.2769943347034012</v>
+        <v>0.0</v>
       </c>
       <c r="C408" t="n">
-        <v>0.28553055008545775</v>
+        <v>0.0</v>
       </c>
       <c r="D408" t="n">
-        <v>0.2909116529535304</v>
+        <v>0.0</v>
       </c>
       <c r="E408" t="n">
-        <v>0.24573333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F408" t="n">
-        <v>0.2878101381836143</v>
+        <v>0.0</v>
       </c>
       <c r="G408" t="n">
-        <v>0.2861853401353399</v>
+        <v>0.0</v>
       </c>
       <c r="H408" t="n">
-        <v>0.2908660274335762</v>
+        <v>0.0</v>
       </c>
       <c r="I408" t="n">
-        <v>0.2758471230929097</v>
+        <v>0.0</v>
       </c>
       <c r="J408" t="n">
-        <v>0.2440994539354533</v>
+        <v>0.0</v>
       </c>
       <c r="K408" t="n">
-        <v>0.2884867572888566</v>
+        <v>0.0</v>
       </c>
       <c r="L408" t="n">
-        <v>0.2458385251195596</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -15835,37 +15835,37 @@
         <v>414.0</v>
       </c>
       <c r="B415" t="n">
-        <v>3.17294709506302</v>
+        <v>0.0</v>
       </c>
       <c r="C415" t="n">
-        <v>3.270728733190495</v>
+        <v>0.0</v>
       </c>
       <c r="D415" t="n">
-        <v>3.3323688195546035</v>
+        <v>0.0</v>
       </c>
       <c r="E415" t="n">
-        <v>2.8148549211125036</v>
+        <v>0.0</v>
       </c>
       <c r="F415" t="n">
-        <v>3.2968412254973534</v>
+        <v>0.0</v>
       </c>
       <c r="G415" t="n">
-        <v>3.2782292988207433</v>
+        <v>0.0</v>
       </c>
       <c r="H415" t="n">
-        <v>3.3318461830134827</v>
+        <v>0.0</v>
       </c>
       <c r="I415" t="n">
-        <v>3.159805881359754</v>
+        <v>0.0</v>
       </c>
       <c r="J415" t="n">
-        <v>2.7961389683305167</v>
+        <v>0.0</v>
       </c>
       <c r="K415" t="n">
-        <v>3.304591841143488</v>
+        <v>0.0</v>
       </c>
       <c r="L415" t="n">
-        <v>2.816059884285807</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>1.3364103693645561</v>
+        <v>0.0</v>
       </c>
       <c r="C420" t="n">
-        <v>1.0714774056192784</v>
+        <v>0.0</v>
       </c>
       <c r="D420" t="n">
-        <v>1.2429466547238557</v>
+        <v>0.0</v>
       </c>
       <c r="E420" t="n">
-        <v>1.236309798733035</v>
+        <v>0.0</v>
       </c>
       <c r="F420" t="n">
-        <v>1.2032836323169906</v>
+        <v>0.0</v>
       </c>
       <c r="G420" t="n">
-        <v>1.2717291197340275</v>
+        <v>0.0</v>
       </c>
       <c r="H420" t="n">
-        <v>1.2434597268160976</v>
+        <v>0.0</v>
       </c>
       <c r="I420" t="n">
-        <v>1.175974037145559</v>
+        <v>0.0</v>
       </c>
       <c r="J420" t="n">
-        <v>1.2291579541159203</v>
+        <v>0.0</v>
       </c>
       <c r="K420" t="n">
-        <v>1.2102868494019714</v>
+        <v>0.0</v>
       </c>
       <c r="L420" t="n">
-        <v>1.0424756447073673</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -17811,37 +17811,37 @@
         <v>466.0</v>
       </c>
       <c r="B467" t="n">
-        <v>0.21123844575523545</v>
+        <v>0.0</v>
       </c>
       <c r="C467" t="n">
-        <v>0.22653452131925794</v>
+        <v>0.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.2227620037209498</v>
+        <v>0.0</v>
       </c>
       <c r="E467" t="n">
-        <v>0.24066666666666664</v>
+        <v>0.0</v>
       </c>
       <c r="F467" t="n">
-        <v>0.2298530418798122</v>
+        <v>0.0</v>
       </c>
       <c r="G467" t="n">
-        <v>0.22832853325968386</v>
+        <v>0.0</v>
       </c>
       <c r="H467" t="n">
-        <v>0.22251065582536356</v>
+        <v>0.0</v>
       </c>
       <c r="I467" t="n">
-        <v>0.23486629949915724</v>
+        <v>0.0</v>
       </c>
       <c r="J467" t="n">
-        <v>0.2302674404510297</v>
+        <v>0.0</v>
       </c>
       <c r="K467" t="n">
-        <v>0.20672025599407368</v>
+        <v>0.0</v>
       </c>
       <c r="L467" t="n">
-        <v>0.1975523693803034</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="468">
@@ -19027,37 +19027,37 @@
         <v>498.0</v>
       </c>
       <c r="B499" t="n">
-        <v>1.44791830664346</v>
+        <v>0.0</v>
       </c>
       <c r="C499" t="n">
-        <v>1.637731905507311</v>
+        <v>0.0</v>
       </c>
       <c r="D499" t="n">
-        <v>1.5803339516027073</v>
+        <v>0.0</v>
       </c>
       <c r="E499" t="n">
-        <v>1.7019735611762368</v>
+        <v>0.0</v>
       </c>
       <c r="F499" t="n">
-        <v>1.387897001728765</v>
+        <v>0.0</v>
       </c>
       <c r="G499" t="n">
-        <v>1.7135016004134327</v>
+        <v>0.0</v>
       </c>
       <c r="H499" t="n">
-        <v>1.582344873423358</v>
+        <v>0.0</v>
       </c>
       <c r="I499" t="n">
-        <v>1.6945845936129795</v>
+        <v>0.0</v>
       </c>
       <c r="J499" t="n">
-        <v>1.8262398464329104</v>
+        <v>0.0</v>
       </c>
       <c r="K499" t="n">
-        <v>1.7396568922038844</v>
+        <v>0.0</v>
       </c>
       <c r="L499" t="n">
-        <v>1.7088834520225675</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="500">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.8080078627708491</v>
+        <v>0.0</v>
       </c>
       <c r="C518" t="n">
-        <v>0.6744395650805126</v>
+        <v>0.0</v>
       </c>
       <c r="D518" t="n">
-        <v>0.7845321017852855</v>
+        <v>0.0</v>
       </c>
       <c r="E518" t="n">
-        <v>0.8199845686292365</v>
+        <v>0.0</v>
       </c>
       <c r="F518" t="n">
-        <v>0.8022142484968897</v>
+        <v>0.0</v>
       </c>
       <c r="G518" t="n">
-        <v>0.72567478313875</v>
+        <v>0.0</v>
       </c>
       <c r="H518" t="n">
-        <v>0.7839339867622284</v>
+        <v>0.0</v>
       </c>
       <c r="I518" t="n">
-        <v>0.8050935419318188</v>
+        <v>0.0</v>
       </c>
       <c r="J518" t="n">
-        <v>0.7190715949706501</v>
+        <v>0.0</v>
       </c>
       <c r="K518" t="n">
-        <v>0.7069426765925134</v>
+        <v>0.0</v>
       </c>
       <c r="L518" t="n">
-        <v>0.8355857703576705</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="519">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>5.136205922261041</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>5.052401803688639</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>4.9682633041472055</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>5.367591189515671</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>5.126414802537909</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>5.092413670802141</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>4.962657489397128</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>5.2382255397748985</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>5.1356571382158105</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>4.610484036433023</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>4.406012565181422</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>4.137673188717162</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>4.070161476809697</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>4.0023803911288045</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>4.324074713709402</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>4.129785566184284</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>4.102394613933056</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>3.9978644060333126</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>4.219859113989496</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>4.137231094092313</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>3.714157195660009</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>3.5494371401831706</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -20395,37 +20395,37 @@
         <v>534.0</v>
       </c>
       <c r="B535" t="n">
-        <v>0.9985327335438795</v>
+        <v>0.0</v>
       </c>
       <c r="C535" t="n">
-        <v>0.9822403268789422</v>
+        <v>0.0</v>
       </c>
       <c r="D535" t="n">
-        <v>0.9658829130184008</v>
+        <v>0.0</v>
       </c>
       <c r="E535" t="n">
-        <v>1.0435164758062685</v>
+        <v>0.0</v>
       </c>
       <c r="F535" t="n">
-        <v>0.9966292363536245</v>
+        <v>0.0</v>
       </c>
       <c r="G535" t="n">
-        <v>0.9900190568690846</v>
+        <v>0.0</v>
       </c>
       <c r="H535" t="n">
-        <v>0.9647930833638156</v>
+        <v>0.0</v>
       </c>
       <c r="I535" t="n">
-        <v>1.0183664257854024</v>
+        <v>0.0</v>
       </c>
       <c r="J535" t="n">
-        <v>0.9984260441234973</v>
+        <v>0.0</v>
       </c>
       <c r="K535" t="n">
-        <v>0.8963268407730144</v>
+        <v>0.0</v>
       </c>
       <c r="L535" t="n">
-        <v>0.8565754249982511</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="536">
@@ -20661,37 +20661,37 @@
         <v>541.0</v>
       </c>
       <c r="B542" t="n">
-        <v>0.798116515708209</v>
+        <v>0.0</v>
       </c>
       <c r="C542" t="n">
-        <v>0.8434466930869753</v>
+        <v>0.0</v>
       </c>
       <c r="D542" t="n">
-        <v>0.8174331968113699</v>
+        <v>0.0</v>
       </c>
       <c r="E542" t="n">
-        <v>0.8101333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F542" t="n">
-        <v>0.7137638568946411</v>
+        <v>0.0</v>
       </c>
       <c r="G542" t="n">
-        <v>0.8351338607370129</v>
+        <v>0.0</v>
       </c>
       <c r="H542" t="n">
-        <v>0.8318561745864553</v>
+        <v>0.0</v>
       </c>
       <c r="I542" t="n">
-        <v>0.7145096922378072</v>
+        <v>0.0</v>
       </c>
       <c r="J542" t="n">
-        <v>0.8522047739060103</v>
+        <v>0.0</v>
       </c>
       <c r="K542" t="n">
-        <v>0.8139469974316975</v>
+        <v>0.0</v>
       </c>
       <c r="L542" t="n">
-        <v>0.8496219323478748</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="543">
@@ -21345,37 +21345,37 @@
         <v>559.0</v>
       </c>
       <c r="B560" t="n">
-        <v>0.2590262198271335</v>
+        <v>0.0</v>
       </c>
       <c r="C560" t="n">
-        <v>0.25335297156824643</v>
+        <v>0.0</v>
       </c>
       <c r="D560" t="n">
-        <v>0.2603206751632613</v>
+        <v>0.0</v>
       </c>
       <c r="E560" t="n">
-        <v>0.24573333333333328</v>
+        <v>0.0</v>
       </c>
       <c r="F560" t="n">
-        <v>0.23115541028602582</v>
+        <v>0.0</v>
       </c>
       <c r="G560" t="n">
-        <v>0.2578768002865474</v>
+        <v>0.0</v>
       </c>
       <c r="H560" t="n">
-        <v>0.26174404229404036</v>
+        <v>0.0</v>
       </c>
       <c r="I560" t="n">
-        <v>0.2492083729575202</v>
+        <v>0.0</v>
       </c>
       <c r="J560" t="n">
-        <v>0.26250453981382593</v>
+        <v>0.0</v>
       </c>
       <c r="K560" t="n">
-        <v>0.2761028285156902</v>
+        <v>0.0</v>
       </c>
       <c r="L560" t="n">
-        <v>0.25410831425504704</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="561">
